--- a/data/trans_camb/P36BPD07_R-Nacimiento-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Nacimiento-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-13.71536614962547</v>
+        <v>13.71536614962547</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-10.61204273748497</v>
+        <v>10.61204273748498</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-12.10863638266075</v>
+        <v>12.10863638266075</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.98601209564466</v>
+        <v>11.60668547896662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.21641635267568</v>
+        <v>8.876269243723462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.45040050378861</v>
+        <v>10.66846222935377</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-11.60668547896662</v>
+        <v>15.98601209564466</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.876269243723451</v>
+        <v>12.21641635267568</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-10.66846222935375</v>
+        <v>13.45040050378862</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.1611254764432457</v>
+        <v>0.9218721696036475</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1220514301158096</v>
+        <v>0.8130153598116142</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.140711576832055</v>
+        <v>0.86818182213729</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1868208662275938</v>
+        <v>0.7299204325824724</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1394885705854962</v>
+        <v>0.6401890574982024</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1560137130791782</v>
+        <v>0.7308428036357068</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.137994620163595</v>
+        <v>1.14229768172625</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1029152952368588</v>
+        <v>1.009582844598935</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1252873322703139</v>
+        <v>1.015314905840895</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.9003580404855938</v>
+        <v>0.9003580404855993</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-8.089910494629093</v>
+        <v>8.089910494629086</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4.785095507545178</v>
+        <v>4.785095507545178</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.30507326129317</v>
+        <v>-8.564048283944949</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.1045339206475</v>
+        <v>1.057004876154084</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.07856234020434</v>
+        <v>-0.8025573491564311</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.564048283944935</v>
+        <v>10.30507326129319</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.057004876154083</v>
+        <v>15.1045339206475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8025573491564183</v>
+        <v>11.07856234020434</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.0123053020133978</v>
+        <v>0.03355575945501729</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.09673508471921824</v>
+        <v>0.4941773027562893</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.06082040837225311</v>
+        <v>0.2243976335848398</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1343308416032285</v>
+        <v>-0.2740569122608745</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1758890266079625</v>
+        <v>0.05634269806617807</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1372198360638648</v>
+        <v>-0.03717651646898869</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1248758309427032</v>
+        <v>0.4952488678897617</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.01420810219791015</v>
+        <v>1.202380558358005</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0100473103861233</v>
+        <v>0.6011060248065114</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-12.90819456334554</v>
+        <v>12.90819456334554</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-10.45795635936256</v>
+        <v>10.45795635936256</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-11.64498444770667</v>
+        <v>11.64498444770668</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-15.08774863912341</v>
+        <v>10.77729881216886</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.26534511835338</v>
+        <v>8.865964620636795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.96572138807077</v>
+        <v>10.27048088417836</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.77729881216884</v>
+        <v>15.08774863912341</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.865964620636786</v>
+        <v>12.26534511835338</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-10.27048088417836</v>
+        <v>12.96572138807078</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.1529625901888321</v>
+        <v>0.8268080329624876</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.120580016448814</v>
+        <v>0.7881155372574437</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1360636084798857</v>
+        <v>0.8078299526900566</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1775039419835817</v>
+        <v>0.6428173184736738</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1398592436199728</v>
+        <v>0.6304139920818503</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1509086508303946</v>
+        <v>0.6859012578541176</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1291277085098765</v>
+        <v>1.023519809119426</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1029184064494734</v>
+        <v>0.9948698036733545</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1204509516329808</v>
+        <v>0.9383438113040022</v>
       </c>
     </row>
     <row r="22">
